--- a/Physics_Labs/6_sem/Lab6113/data.xlsx
+++ b/Physics_Labs/6_sem/Lab6113/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexn\OneDrive\GitHub\Labs\Physics_Labs\6_sem\Lab6113\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{86788426-1DDC-42D8-AF9E-C494EA59F18D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{717D0613-38FE-420B-ADC9-FD14F4E76D49}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{86788426-1DDC-42D8-AF9E-C494EA59F18D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2B833EAB-AE86-4E41-8449-DC0F5179A1D2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{7252E551-196D-44BB-963B-128F2837398D}"/>
   </bookViews>
@@ -398,7 +398,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$3:$D$13</c:f>
+              <c:f>Лист1!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -440,7 +440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$3:$E$13</c:f>
+              <c:f>Лист1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1603,11 +1603,11 @@
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1621,13 +1621,13 @@
         <f>273.15+$B$1+A3*41</f>
         <v>296.09999999999997</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="3">
+        <f>1/C3</f>
+        <v>3.3772374197906115E-3</v>
+      </c>
+      <c r="E3" s="13">
         <f>LN(B3)</f>
         <v>8.5171931914162382</v>
-      </c>
-      <c r="E3" s="3">
-        <f>1/C3</f>
-        <v>3.3772374197906115E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1641,13 +1641,13 @@
         <f t="shared" ref="C4:C10" si="0">273.15+$B$1+A4*41</f>
         <v>303.47999999999996</v>
       </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D10" si="1">LN(B4)</f>
+      <c r="D4" s="3">
+        <f>1/C4</f>
+        <v>3.2951100566758935E-3</v>
+      </c>
+      <c r="E4" s="13">
+        <f>LN(B4)</f>
         <v>8.2268408904085781</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E10" si="2">1/C4</f>
-        <v>3.2951100566758935E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1661,13 +1661,13 @@
         <f t="shared" si="0"/>
         <v>309.21999999999997</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" si="1"/>
+      <c r="D5" s="3">
+        <f>1/C5</f>
+        <v>3.2339434706681329E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <f>LN(B5)</f>
         <v>7.9515593311552522</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="2"/>
-        <v>3.2339434706681329E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1681,13 +1681,13 @@
         <f t="shared" si="0"/>
         <v>315.37</v>
       </c>
-      <c r="D6" s="13">
-        <f t="shared" si="1"/>
+      <c r="D6" s="3">
+        <f>1/C6</f>
+        <v>3.1708786504740464E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>LN(B6)</f>
         <v>7.6058900010531216</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>3.1708786504740464E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1701,13 +1701,13 @@
         <f t="shared" si="0"/>
         <v>319.88</v>
       </c>
-      <c r="D7" s="13">
-        <f t="shared" si="1"/>
+      <c r="D7" s="3">
+        <f>1/C7</f>
+        <v>3.1261723146179818E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <f>LN(B7)</f>
         <v>7.4730690880321973</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>3.1261723146179818E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1721,13 +1721,13 @@
         <f t="shared" si="0"/>
         <v>324.79999999999995</v>
       </c>
-      <c r="D8" s="13">
-        <f t="shared" si="1"/>
+      <c r="D8" s="3">
+        <f>1/C8</f>
+        <v>3.0788177339901484E-3</v>
+      </c>
+      <c r="E8" s="13">
+        <f>LN(B8)</f>
         <v>7.2298387781512501</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>3.0788177339901484E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1741,13 +1741,13 @@
         <f t="shared" si="0"/>
         <v>330.13</v>
       </c>
-      <c r="D9" s="13">
-        <f t="shared" si="1"/>
+      <c r="D9" s="3">
+        <f>1/C9</f>
+        <v>3.0291097446460487E-3</v>
+      </c>
+      <c r="E9" s="13">
+        <f>LN(B9)</f>
         <v>7.0030654587864616</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>3.0291097446460487E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1761,13 +1761,13 @@
         <f t="shared" si="0"/>
         <v>335.04999999999995</v>
       </c>
-      <c r="D10" s="13">
-        <f t="shared" si="1"/>
+      <c r="D10" s="3">
+        <f>1/C10</f>
+        <v>2.9846291598268921E-3</v>
+      </c>
+      <c r="E10" s="13">
+        <f>LN(B10)</f>
         <v>6.8875525716646173</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="2"/>
-        <v>2.9846291598268921E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1778,16 +1778,16 @@
         <v>860</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C13" si="3">273.15+$B$1+A11*41</f>
+        <f t="shared" ref="C11:C13" si="1">273.15+$B$1+A11*41</f>
         <v>340.38</v>
       </c>
-      <c r="D11" s="13">
-        <f t="shared" ref="D11:D13" si="4">LN(B11)</f>
+      <c r="D11" s="3">
+        <f>1/C11</f>
+        <v>2.9378929431811505E-3</v>
+      </c>
+      <c r="E11" s="13">
+        <f>LN(B11)</f>
         <v>6.7569323892475532</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ref="E11:E13" si="5">1/C11</f>
-        <v>2.9378929431811505E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1798,16 +1798,16 @@
         <v>740</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>346.12</v>
       </c>
-      <c r="D12" s="13">
-        <f t="shared" si="4"/>
+      <c r="D12" s="3">
+        <f>1/C12</f>
+        <v>2.8891713856465965E-3</v>
+      </c>
+      <c r="E12" s="13">
+        <f>LN(B12)</f>
         <v>6.6066501861982152</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8891713856465965E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1818,16 +1818,16 @@
         <v>660</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>350.21999999999997</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" si="4"/>
+      <c r="D13" s="7">
+        <f>1/C13</f>
+        <v>2.8553480669293589E-3</v>
+      </c>
+      <c r="E13" s="14">
+        <f>LN(B13)</f>
         <v>6.4922398350204711</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="5"/>
-        <v>2.8553480669293589E-3</v>
       </c>
     </row>
   </sheetData>
